--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1285.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1285.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8301453668818194</v>
+        <v>1.132846713066101</v>
       </c>
       <c r="B1">
-        <v>1.514385017280769</v>
+        <v>2.252492189407349</v>
       </c>
       <c r="C1">
-        <v>5.201683392189575</v>
+        <v>10.94107532501221</v>
       </c>
       <c r="D1">
-        <v>3.756552191161128</v>
+        <v>2.206290006637573</v>
       </c>
       <c r="E1">
-        <v>1.514296212269692</v>
+        <v>1.28030788898468</v>
       </c>
     </row>
   </sheetData>
